--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaquille\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaquille\Desktop\Information systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EF280A7-640C-4EC2-9287-12675E8498D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0DA138-2C05-42E6-9AF4-DB4AF95790B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15684" windowHeight="12456" xr2:uid="{519F47AC-475F-4871-8BCA-3255E7B15640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{519F47AC-475F-4871-8BCA-3255E7B15640}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -78,13 +78,103 @@
   </si>
   <si>
     <t>As a user, I want to contact the company for queries.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to update the project status at the end of each day so that clients are informed about the progress.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to allocate resources efficiently to ensure project timelines are met.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to schedule and manage meetings with clients to ensure project parameters are being met.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to create and update the project roadmap to direct planning and execution.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to monitor the project budget to ensure it stays within the allocated funds.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to identify and manage risks to mitigate potential issues.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to gather and review client feedback to improve project delivery.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to coordinate with the project team to ensure everyone is aligned with the project goals.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to generate progress reports to keep stakeholders informed.</t>
+  </si>
+  <si>
+    <t>As a project manager, I want to track and resolve issues promptly to keep the project on track.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to review project progress reports to ensure the project is on track.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to monitor the project budget and expenses to ensure financial resources are used efficiently.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to provide feedback on the website’s front-end features to ensure they meet client needs.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to approve major changes to the project scope to ensure alignment with business goals.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want access to key performance metrics to evaluate the project’s success.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to assess project risks to ensure potential issues are identified and mitigated.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to participate in strategic planning sessions to align the project with long-term business objectives.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to attend regular meetings to stay informed about project developments.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to approve resource allocation to ensure optimal use of resources.</t>
+  </si>
+  <si>
+    <t>As a stakeholder, I want to ensure the project complies with industry standards and regulations.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to manage user accounts so that I can ensure only authorized users have access.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to view and update project statuses so that clients are always informed.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to generate reports on project progress so that I can provide detailed updates to stakeholders.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to manage on-site assessment requests so that I can assign personnel efficiently.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to monitor emergency repair requests so that I can ensure quick responses.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to update company information on the website so that clients have the latest details.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to manage content on the homepage so that it remains relevant and engaging.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to handle client queries from the contact page so that I can provide timely support.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to ensure the website’s security so that client data is protected.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to manage website backups so that data is not lost.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +188,77 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,22 +266,164 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF00FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -140,6 +433,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,142 +756,765 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D1C179-2374-4991-8B2C-43A2874F9431}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>2</v>
       </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>8</v>
       </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>13</v>
       </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>20</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <v>22</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <v>23</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <v>24</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>25</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>26</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>27</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>28</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="19"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>31</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>32</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>33</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>34</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>35</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>36</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>37</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="11">
+        <v>38</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1e386374-eb00-4a5e-99ff-6f987697e9db" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010030744B74C044D84EB0F47502B1E713E5" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="0d08e07b78cfb52164778366f227e094">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e386374-eb00-4a5e-99ff-6f987697e9db" xmlns:ns4="2fb528dd-e0dc-437d-802a-26bb285e2fb8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bef3e20ac6b1b370e8c0a070863779ef" ns3:_="" ns4:_="">
+    <xsd:import namespace="1e386374-eb00-4a5e-99ff-6f987697e9db"/>
+    <xsd:import namespace="2fb528dd-e0dc-437d-802a-26bb285e2fb8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e386374-eb00-4a5e-99ff-6f987697e9db" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="20" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2fb528dd-e0dc-437d-802a-26bb285e2fb8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57969380-2D4F-4154-8617-84D78E865352}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2fb528dd-e0dc-437d-802a-26bb285e2fb8"/>
+    <ds:schemaRef ds:uri="1e386374-eb00-4a5e-99ff-6f987697e9db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AEBD4000-60FC-4913-AE29-D73AD19B979E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e386374-eb00-4a5e-99ff-6f987697e9db"/>
+    <ds:schemaRef ds:uri="2fb528dd-e0dc-437d-802a-26bb285e2fb8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0641C804-A3B9-49D6-8678-568AD9D08FE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>